--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3414574686293478</v>
+        <v>0.3319637977432719</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3414574686293478, 'ngram_match_score': 0.15216465235522694, 'weighted_ngram_match_score': 0.19923484241532877, 'syntax_match_score': 0.66, 'dataflow_match_score': 0.35443037974683544}</t>
+          <t>{'codebleu': 0.3319637977432719, 'ngram_match_score': 0.15216465235522694, 'weighted_ngram_match_score': 0.19923484241532877, 'syntax_match_score': 0.66, 'dataflow_match_score': 0.31645569620253167}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC2.1_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3319637977432719</v>
+        <v>0.3256346838192212</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3319637977432719, 'ngram_match_score': 0.15216465235522694, 'weighted_ngram_match_score': 0.19923484241532877, 'syntax_match_score': 0.66, 'dataflow_match_score': 0.31645569620253167}</t>
+          <t>{'codebleu': 0.3256346838192212, 'ngram_match_score': 0.15216465235522694, 'weighted_ngram_match_score': 0.19923484241532877, 'syntax_match_score': 0.66, 'dataflow_match_score': 0.2911392405063291}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
